--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>

--- a/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
+++ b/Logging_OSTERGOTLANDS_LAN/Logging_NORRKOPING/Översikt NORRKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         <v>45110</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>45112</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         <v>45112</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45112</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
         <v>45114</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>45117</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>45117</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>45117</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45117</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
         <v>45117</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1782,7 +1782,7 @@
         <v>45117</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1844,7 +1844,7 @@
         <v>45117</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>45118</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>45118</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>45118</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
         <v>45119</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>45120</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>45120</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         <v>45121</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45121</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>45121</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>45121</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45121</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
         <v>45126</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45126</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45128</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2739,7 +2739,7 @@
         <v>45128</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45129</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45131</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2915,7 +2915,7 @@
         <v>45132</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
